--- a/microsoft-365/managed-desktop/get-ready/downloads/PKCS-certificate-template.xlsx
+++ b/microsoft-365/managed-desktop/get-ready/downloads/PKCS-certificate-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamshep\OneDrive - Microsoft\MMD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaimeo\microsoft-365-docs-pr\microsoft-365\managed-desktop\get-ready\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{C118B873-6458-4A1E-84BC-C0859A9451F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{DB5A1E5E-2CCD-4E88-AEA0-2F4CBF135E12}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D914E9F-7840-4477-BC91-86EA4306E321}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="22485" windowHeight="14400" xr2:uid="{29973037-B366-4275-B08D-55542FFD3B74}"/>
+    <workbookView xWindow="1095" yWindow="630" windowWidth="22305" windowHeight="12585" xr2:uid="{29973037-B366-4275-B08D-55542FFD3B74}"/>
   </bookViews>
   <sheets>
     <sheet name="PKCS Cert Request Template" sheetId="1" r:id="rId1"/>
@@ -205,9 +205,6 @@
     <t>Certificate Infrastructure Type</t>
   </si>
   <si>
-    <t>PKCS Certificate Requirements Template</t>
-  </si>
-  <si>
     <t>PKCS</t>
   </si>
   <si>
@@ -221,6 +218,9 @@
   </si>
   <si>
     <t>Certificate authority</t>
+  </si>
+  <si>
+    <t>PKCS Certificate requirements template</t>
   </si>
   <si>
     <r>
@@ -246,10 +246,10 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-If a PKCS certificate is needed for MMD devices, fill out this template to collect the required details.  
-Once the details are completed, create the required certificate profile using Microsoft Intune.   For more details on certificates in Intune:  
-https://docs.microsoft.com/en-us/intune/certficates-pfx-configure#create-a-pkcs-certificate-profile
-Test the policy against a test machine and once validated submit a request to the Microsoft Managed Desktop operations team through the Microsoft Managed Desktop portal to have the policy distributed to your Microsoft Managed Desktop devices. 
+If a PKCS certificate is needed for Microsoft Managed Desktop devices, fill out this template to collect the required details.  
+Once the details are completed, create the required certificate profile using Microsoft Intune.  For more details on certificates in Intune:  
+https://docs.microsoft.com/intune/certficates-pfx-configure#create-a-pkcs-certificate-profile
+Test the policy against a test device and once validated submit a request to the Microsoft Managed Desktop Operations team through the Microsoft Managed Desktop Admin Portal to have the policy distributed to your Microsoft Managed Desktop devices. 
 </t>
     </r>
     <r>
@@ -281,8 +281,8 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-Before a PKCS certificate can be requested, a PKCS certificate distribution infrastructure must be configured within your Intune environment. 
-For more details see  https://docs.microsoft.com/en-gb/intune/certificates-configure</t>
+Before you can request a PKCS certificate, you must set up a PKCS certificate distribution infrastructure in your Intune environment. 
+For more details see  https://docs.microsoft.com/intune/certificates-configure</t>
     </r>
   </si>
 </sst>
@@ -887,45 +887,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC9385A-E925-47B1-BD5F-9850A97989AC}">
   <dimension ref="B3:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="1"/>
-    <col min="2" max="2" width="37.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="37.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.3984375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="1"/>
+    <col min="4" max="4" width="60.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
     </row>
-    <row r="7" spans="2:13" ht="18.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
@@ -943,7 +943,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -955,13 +955,13 @@
       <c r="L10" s="20"/>
       <c r="M10" s="21"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="20"/>
@@ -971,7 +971,7 @@
       <c r="L11" s="20"/>
       <c r="M11" s="21"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -983,7 +983,7 @@
       <c r="L12" s="20"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>0</v>
       </c>
@@ -997,7 +997,7 @@
       <c r="L13" s="20"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="4"/>
       <c r="D14" s="12"/>
@@ -1009,7 +1009,7 @@
       <c r="L14" s="20"/>
       <c r="M14" s="21"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
@@ -1023,7 +1023,7 @@
       <c r="L15" s="20"/>
       <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="5"/>
       <c r="D16" s="12"/>
@@ -1035,9 +1035,9 @@
       <c r="L16" s="20"/>
       <c r="M16" s="21"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="12"/>
@@ -1049,7 +1049,7 @@
       <c r="L17" s="20"/>
       <c r="M17" s="21"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="5"/>
       <c r="D18" s="12"/>
@@ -1061,7 +1061,7 @@
       <c r="L18" s="20"/>
       <c r="M18" s="21"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1075,7 @@
       <c r="L19" s="20"/>
       <c r="M19" s="21"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="5"/>
       <c r="D20" s="12"/>
@@ -1087,7 +1087,7 @@
       <c r="L20" s="20"/>
       <c r="M20" s="21"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>5</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="L21" s="20"/>
       <c r="M21" s="21"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="5"/>
       <c r="D22" s="12"/>
@@ -1113,7 +1113,7 @@
       <c r="L22" s="20"/>
       <c r="M22" s="21"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>6</v>
       </c>
@@ -1127,7 +1127,7 @@
       <c r="L23" s="20"/>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="12"/>
@@ -1139,7 +1139,7 @@
       <c r="L24" s="20"/>
       <c r="M24" s="21"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>7</v>
       </c>
@@ -1153,7 +1153,7 @@
       <c r="L25" s="20"/>
       <c r="M25" s="21"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="12"/>
@@ -1165,9 +1165,9 @@
       <c r="L26" s="20"/>
       <c r="M26" s="21"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="12"/>
@@ -1179,7 +1179,7 @@
       <c r="L27" s="20"/>
       <c r="M27" s="21"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="12"/>
@@ -1191,9 +1191,9 @@
       <c r="L28" s="20"/>
       <c r="M28" s="21"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="12"/>
@@ -1205,7 +1205,7 @@
       <c r="L29" s="20"/>
       <c r="M29" s="21"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="5"/>
       <c r="D30" s="12"/>
@@ -1217,9 +1217,9 @@
       <c r="L30" s="20"/>
       <c r="M30" s="21"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="12"/>
@@ -1231,7 +1231,7 @@
       <c r="L31" s="20"/>
       <c r="M31" s="21"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="5"/>
       <c r="D32" s="12"/>
@@ -1243,7 +1243,7 @@
       <c r="L32" s="23"/>
       <c r="M32" s="24"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
